--- a/testcase/XXD/TIANDUN/PayGate/PayGate.xlsx
+++ b/testcase/XXD/TIANDUN/PayGate/PayGate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="5780" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="29120" yWindow="4440" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="getLastReconciliationDate_GET" sheetId="11" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="getQueryTxnList_POST" sheetId="33" r:id="rId12"/>
     <sheet name="getReconciliAtionFailureLi_POST" sheetId="34" r:id="rId13"/>
     <sheet name="getReconciliAtionList_POST" sheetId="35" r:id="rId14"/>
+    <sheet name="getSyncList_POST" sheetId="36" r:id="rId15"/>
+    <sheet name="manualRollback_POST" sheetId="37" r:id="rId16"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="50">
   <si>
     <t>url</t>
   </si>
@@ -181,6 +183,12 @@
   </si>
   <si>
     <t>http://${environment}.xxd.com/payGate/payGate/getReconciliAtionList?header.clientId=${header.clientId}&amp;header.clientTime=${header.clientTime}&amp;header.clientIp=${header.clientIp}&amp;header.userAgent=${header.userAgent}&amp;header.clientSign=${header.clientSign}&amp;header.token=${header.token}&amp;bodyString=${bodyString}&amp;controllerClass=${controllerClass}&amp;requestMethod=${requestMethod}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/payGate/payGate/getSyncList?header.clientId=${header.clientId}&amp;header.clientTime=${header.clientTime}&amp;header.clientIp=${header.clientIp}&amp;header.userAgent=${header.userAgent}&amp;header.clientSign=${header.clientSign}&amp;header.token=${header.token}&amp;bodyString=${bodyString}&amp;controllerClass=${controllerClass}&amp;requestMethod=${requestMethod}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/payGate/payGate/manualRollback?header.clientId=${header.clientId}&amp;header.clientTime=${header.clientTime}&amp;header.clientIp=${header.clientIp}&amp;header.userAgent=${header.userAgent}&amp;header.clientSign=${header.clientSign}&amp;header.token=${header.token}&amp;bodyString=${bodyString}&amp;controllerClass=${controllerClass}&amp;requestMethod=${requestMethod}</t>
   </si>
 </sst>
 </file>
@@ -4369,6 +4377,1830 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M40" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/bids/${bidCode}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="4">
+        <v>100500</v>
+      </c>
+      <c r="M40" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://dev.xxd.com/integrationPlatform/bids/${bidCode}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5:L40"/>
     </sheetView>
@@ -4411,7 +6243,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -4508,7 +6340,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="17"/>
@@ -4530,7 +6362,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -4551,7 +6383,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M6" s="4"/>
     </row>
@@ -4572,7 +6404,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -4593,7 +6425,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M8" s="4"/>
     </row>
@@ -4614,7 +6446,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M9" s="4"/>
     </row>
@@ -4635,7 +6467,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M10" s="4"/>
     </row>
@@ -4656,7 +6488,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -4677,7 +6509,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M12" s="4"/>
     </row>
@@ -4698,7 +6530,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M13" s="4"/>
     </row>
@@ -4719,7 +6551,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M14" s="4"/>
     </row>
@@ -4740,7 +6572,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M15" s="4"/>
     </row>
@@ -4761,7 +6593,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M16" s="4"/>
     </row>
@@ -4782,7 +6614,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M17" s="4"/>
     </row>
@@ -4803,7 +6635,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M18" s="4"/>
     </row>
@@ -4824,7 +6656,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M19" s="4"/>
     </row>
@@ -4845,7 +6677,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -4866,7 +6698,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M21" s="4"/>
     </row>
@@ -4887,7 +6719,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M22" s="4"/>
     </row>
@@ -4908,7 +6740,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M23" s="4"/>
     </row>
@@ -4929,7 +6761,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M24" s="4"/>
     </row>
@@ -4950,7 +6782,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M25" s="4"/>
     </row>
@@ -4971,7 +6803,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M26" s="4"/>
     </row>
@@ -4992,7 +6824,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M27" s="4"/>
     </row>
@@ -5013,7 +6845,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M28" s="4"/>
     </row>
@@ -5034,7 +6866,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M29" s="4"/>
     </row>
@@ -5055,7 +6887,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M30" s="4"/>
     </row>
@@ -5076,7 +6908,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M31" s="4"/>
     </row>
@@ -5097,7 +6929,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M32" s="4"/>
     </row>
@@ -5118,7 +6950,7 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M33" s="4"/>
     </row>
@@ -5139,7 +6971,7 @@
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M34" s="4"/>
     </row>
@@ -5160,7 +6992,7 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M35" s="4"/>
     </row>
@@ -5181,7 +7013,7 @@
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M36" s="4"/>
     </row>
@@ -5202,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M37" s="4"/>
     </row>
@@ -5223,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M38" s="4"/>
     </row>
@@ -5244,7 +7076,7 @@
         <v>13</v>
       </c>
       <c r="L39" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M39" s="4"/>
     </row>
@@ -5265,7 +7097,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="4">
-        <v>100500</v>
+        <v>200000</v>
       </c>
       <c r="M40" s="4"/>
     </row>
